--- a/medicine/Pharmacie/1710_en_santé_et_médecine/1710_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1710_en_santé_et_médecine/1710_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1710_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1710_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1710 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1710_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1710_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1710_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1710_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,11 +551,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>François Pourfour du Petit décrit sa thèse sur l'innervation collatérale dans Lettres d'un médecin des hôpitaux du Roy à un autre médecin de ses amis, Namur, 1710, 50 p. (lire en ligne sur Gallica)[1],[2].
-Alexis Littré, dans son traité Diverses observations anatomiques[3], est le premier médecin à suggérer la possibilité d'effectuer une colostomie dans la région lombaire pour une obstruction du côlon.
-Stephen Hales est le premier à mesurer la capacité du cœur d'un mammifère[4] et le premier à mesurer la pression artérielle[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>François Pourfour du Petit décrit sa thèse sur l'innervation collatérale dans Lettres d'un médecin des hôpitaux du Roy à un autre médecin de ses amis, Namur, 1710, 50 p. (lire en ligne sur Gallica),.
+Alexis Littré, dans son traité Diverses observations anatomiques, est le premier médecin à suggérer la possibilité d'effectuer une colostomie dans la région lombaire pour une obstruction du côlon.
+Stephen Hales est le premier à mesurer la capacité du cœur d'un mammifère et le premier à mesurer la pression artérielle.</t>
         </is>
       </c>
     </row>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1710_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1710_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>15 avril : William Cullen (mort en 1790),  médecin et chimiste britannique.
 20 avril : Jean-Joseph Sue (mort en 1792), anatomiste français, père de Jean-Joseph Sue (1760-1830) et grand-père d'Eugène Sue.
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1710_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1710_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,6 +621,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
